--- a/Params/Excel/自动化测试数据设计.xlsx
+++ b/Params/Excel/自动化测试数据设计.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="26595" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="sheetname" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>序号</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>{"username":123,"password":456,"token":【token】}</t>
+  </si>
+  <si>
+    <t>sheetname,JSON1</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -86,12 +95,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +117,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -118,6 +128,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,12 +150,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -147,59 +201,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,39 +231,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,13 +268,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,163 +310,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,11 +471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,8 +489,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,17 +510,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,164 +553,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1076,12 +1078,9 @@
     <col min="8" max="8" width="36.875" customWidth="1"/>
     <col min="9" max="10" width="11.125" customWidth="1"/>
     <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="32.375" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1114,9 +1113,6 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1171,20 +1167,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1211,6 +1243,8 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://192.168.1.1"/>
     <hyperlink ref="D3" r:id="rId1" display="http://192.168.1.1"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://192.168.1.1"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://192.168.1.1"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1221,14 +1255,179 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>124</v>
+      </c>
+      <c r="B3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>125</v>
+      </c>
+      <c r="B4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>126</v>
+      </c>
+      <c r="B5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>127</v>
+      </c>
+      <c r="B6">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>129</v>
+      </c>
+      <c r="B8">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>130</v>
+      </c>
+      <c r="B9">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>131</v>
+      </c>
+      <c r="B10">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>132</v>
+      </c>
+      <c r="B11">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>133</v>
+      </c>
+      <c r="B12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>134</v>
+      </c>
+      <c r="B13">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>135</v>
+      </c>
+      <c r="B14">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>136</v>
+      </c>
+      <c r="B15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>137</v>
+      </c>
+      <c r="B16">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>138</v>
+      </c>
+      <c r="B17">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>139</v>
+      </c>
+      <c r="B18">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>140</v>
+      </c>
+      <c r="B19">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>141</v>
+      </c>
+      <c r="B20">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
